--- a/si-mhsdo/public/MahasiswaData/daftarmahasiswa.xlsx
+++ b/si-mhsdo/public/MahasiswaData/daftarmahasiswa.xlsx
@@ -14,7 +14,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="62">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>NIM</t>
+  </si>
+  <si>
+    <t>Angkatan</t>
+  </si>
+  <si>
+    <t>Prodi</t>
+  </si>
+  <si>
+    <t>Fakultas</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>IPK</t>
+  </si>
+  <si>
+    <t>Total_SKS</t>
+  </si>
+  <si>
+    <t>Masa_Studi</t>
+  </si>
+  <si>
+    <t>HP_Ortu</t>
+  </si>
+  <si>
+    <t>HP_Mahasiswa</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Evaluasi</t>
+  </si>
+  <si>
+    <t>Alex Putra Siregar</t>
+  </si>
   <si>
     <t>Informatika</t>
   </si>
@@ -34,58 +82,124 @@
     <t>aktif</t>
   </si>
   <si>
+    <t>terancam do</t>
+  </si>
+  <si>
+    <t>Elfijario Direnda Qalbi</t>
+  </si>
+  <si>
+    <t>085271717167</t>
+  </si>
+  <si>
+    <t>085265276642</t>
+  </si>
+  <si>
+    <t>elfijariodqalbi@gmail.com</t>
+  </si>
+  <si>
+    <t>Siti Aisyah</t>
+  </si>
+  <si>
+    <t>082398070056</t>
+  </si>
+  <si>
+    <t>085231445589</t>
+  </si>
+  <si>
+    <t>admin1@gmail.com</t>
+  </si>
+  <si>
+    <t>Muhammad Idris</t>
+  </si>
+  <si>
+    <t>Muhammad Afdhal Syafli</t>
+  </si>
+  <si>
+    <t>petugas1@gmail.com</t>
+  </si>
+  <si>
+    <t>Fajril Akbar</t>
+  </si>
+  <si>
+    <t>Elgibran</t>
+  </si>
+  <si>
+    <t>Hubungan Internasional</t>
+  </si>
+  <si>
+    <t>Ilmu Sosial dan Ilmu Politik</t>
+  </si>
+  <si>
+    <t>Aminah</t>
+  </si>
+  <si>
+    <t>Teknik Industri</t>
+  </si>
+  <si>
+    <t>Teknik</t>
+  </si>
+  <si>
     <t>aman</t>
   </si>
   <si>
-    <t>Sistem Informasi</t>
-  </si>
-  <si>
-    <t>085271717167</t>
-  </si>
-  <si>
-    <t>085265276642</t>
-  </si>
-  <si>
-    <t>elfijariodqalbi@gmail.com</t>
-  </si>
-  <si>
-    <t>terancam do</t>
-  </si>
-  <si>
-    <t>082398070056</t>
-  </si>
-  <si>
-    <t>085231445589</t>
-  </si>
-  <si>
-    <t>admin1@gmail.com</t>
-  </si>
-  <si>
-    <t>petugas1@gmail.com</t>
+    <t>Ricky Akbar</t>
   </si>
   <si>
     <t>Husnil Kamil</t>
   </si>
   <si>
-    <t>Ricky Akbar</t>
-  </si>
-  <si>
-    <t>Teknik Komputer</t>
-  </si>
-  <si>
-    <t>Aminah</t>
-  </si>
-  <si>
-    <t>Teknik Industri</t>
-  </si>
-  <si>
-    <t>Teknik</t>
-  </si>
-  <si>
-    <t>Elgibran</t>
-  </si>
-  <si>
-    <t>Fajril Akbar</t>
+    <t>Obama Putra</t>
+  </si>
+  <si>
+    <t>080921100291</t>
+  </si>
+  <si>
+    <t>obama@gmail.com</t>
+  </si>
+  <si>
+    <t>Bambang Pamungkas</t>
+  </si>
+  <si>
+    <t>Putri Siregar</t>
+  </si>
+  <si>
+    <t>Gizi</t>
+  </si>
+  <si>
+    <t>Kesehatan Masyarakat</t>
+  </si>
+  <si>
+    <t>lptik@gmail.com</t>
+  </si>
+  <si>
+    <t>Kedokteran</t>
+  </si>
+  <si>
+    <t>Ilmu Biomedis</t>
+  </si>
+  <si>
+    <t>Pendidikan Dokter</t>
+  </si>
+  <si>
+    <t>Psikologi</t>
+  </si>
+  <si>
+    <t>Teknik Lingkungan</t>
+  </si>
+  <si>
+    <t>Teknik Mesin</t>
+  </si>
+  <si>
+    <t>Peternakan</t>
+  </si>
+  <si>
+    <t>Ekonomi dan Bisnis</t>
+  </si>
+  <si>
+    <t>Ilmu Ekonomi</t>
+  </si>
+  <si>
+    <t>Akuntansi</t>
   </si>
 </sst>
 </file>
@@ -422,220 +536,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1">
-        <v>1911523099</v>
-      </c>
-      <c r="D1">
-        <v>2021</v>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>3</v>
-      </c>
-      <c r="H1">
-        <v>3.43</v>
-      </c>
-      <c r="I1">
-        <v>55</v>
-      </c>
-      <c r="J1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>1911523099</v>
+      </c>
+      <c r="D2">
+        <v>2021</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3.43</v>
+      </c>
+      <c r="I2">
+        <v>60</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2">
-        <v>1911521021</v>
-      </c>
-      <c r="D2">
-        <v>2019</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>3.15</v>
-      </c>
-      <c r="I2">
-        <v>150</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>1911523111</v>
+        <v>1911521021</v>
       </c>
       <c r="D3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>13</v>
       </c>
       <c r="H3">
-        <v>3.08</v>
+        <v>3.15</v>
       </c>
       <c r="I3">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>1911522007</v>
+        <v>1911523111</v>
       </c>
       <c r="D4">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>3.43</v>
+        <v>3.11</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>1911523025</v>
+        <v>1911522007</v>
       </c>
       <c r="D5">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -644,25 +762,448 @@
         <v>3.43</v>
       </c>
       <c r="I5">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J5">
         <v>7</v>
       </c>
       <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>1911523025</v>
+      </c>
+      <c r="D6">
+        <v>2019</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>3.43</v>
+      </c>
+      <c r="I6">
+        <v>122</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>1911523099</v>
+      </c>
+      <c r="D7">
+        <v>2021</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3.43</v>
+      </c>
+      <c r="I7">
+        <v>55</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>1911521021</v>
+      </c>
+      <c r="D8">
+        <v>2019</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>3.15</v>
+      </c>
+      <c r="I8">
+        <v>150</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>1911523111</v>
+      </c>
+      <c r="D9">
+        <v>2017</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>3.08</v>
+      </c>
+      <c r="I9">
+        <v>149</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>1911522007</v>
+      </c>
+      <c r="D10">
+        <v>2019</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3.43</v>
+      </c>
+      <c r="I10">
+        <v>40</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>1911523025</v>
+      </c>
+      <c r="D11">
+        <v>2016</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>3.43</v>
+      </c>
+      <c r="I11">
+        <v>122</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>12</v>
       </c>
-      <c r="L5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" t="s">
-        <v>11</v>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>1911591011</v>
+      </c>
+      <c r="D12">
+        <v>2019</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>2.99</v>
+      </c>
+      <c r="I12">
+        <v>121</v>
+      </c>
+      <c r="J12">
+        <v>6.5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>1611523025</v>
+      </c>
+      <c r="D13">
+        <v>2016</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>2.99</v>
+      </c>
+      <c r="I13">
+        <v>122</v>
+      </c>
+      <c r="J13">
+        <v>7.5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <v>1511431001</v>
+      </c>
+      <c r="D14">
+        <v>2021</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>1.43</v>
+      </c>
+      <c r="I14">
+        <v>122</v>
+      </c>
+      <c r="J14">
+        <v>7.5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
